--- a/requisitos/Requisitos.xlsx
+++ b/requisitos/Requisitos.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="96">
   <si>
     <t>Consultoria de Detetives Christie</t>
   </si>
@@ -119,13 +119,13 @@
     <t>Manipulação</t>
   </si>
   <si>
-    <t>Todos os casos abertos têm vinculados pelo menos um detetive.</t>
+    <t>Todos os casos têm vinculados pelo menos um detetive.</t>
   </si>
   <si>
     <t>FA</t>
   </si>
   <si>
-    <t>Todos os casos têm associado um único cliente.</t>
+    <t>Todos os casos têm associados um único cliente.</t>
   </si>
   <si>
     <t>Todos os casos têm zero ou mais testemunhas.</t>
@@ -193,7 +193,7 @@
     </r>
   </si>
   <si>
-    <t>Quando um detetive é demitido ou se aposenta o seu atributo "estado" deve ser atualizado respetivamente, assim como o atributo "data de desvinculação" de todas as suas vinculações a casos.</t>
+    <t>Quando um detetive é demitido ou se aposenta, o seu atributo "estado" deve ser atualizado respetivamente, assim como o atributo "data de desvinculação" de todas as suas vinculações a casos.</t>
   </si>
   <si>
     <t>Os dados relativos a um detetive devem ser acedidos através do seu identificador único.</t>
@@ -283,6 +283,9 @@
     </r>
   </si>
   <si>
+    <t>Todos as evidências têm associadas um único caso.</t>
+  </si>
+  <si>
     <t>O sistema deve estar operacional durante 24 horas por dia, 7 dias por semana, sem interrupções.</t>
   </si>
   <si>
@@ -323,6 +326,23 @@
         <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">É permitido pelo sistema obter o lucro/prejuízo de um caso, através da subtração do valor obtido em </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>R44</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve"> (rendimento) pelo valor obtido em </t>
     </r>
     <r>
       <rPr>
@@ -339,23 +359,6 @@
         <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve"> (rendimento) pelo valor obtido em </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>R42</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
       <t xml:space="preserve"> (custo).</t>
     </r>
   </si>
@@ -376,6 +379,12 @@
   </si>
   <si>
     <t>Documento de Requisitos de Descrição</t>
+  </si>
+  <si>
+    <t>Todos os casos abertos têm vinculados pelo menos um detetive.</t>
+  </si>
+  <si>
+    <t>Todos os casos têm associado um único cliente.</t>
   </si>
   <si>
     <r>
@@ -435,6 +444,9 @@
       </rPr>
       <t>envolvido.</t>
     </r>
+  </si>
+  <si>
+    <t>Quando um detetive é demitido ou se aposenta o seu atributo "estado" deve ser atualizado respetivamente, assim como o atributo "data de desvinculação" de todas as suas vinculações a casos.</t>
   </si>
   <si>
     <r>
@@ -612,14 +624,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -641,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -693,6 +705,11 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -701,13 +718,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,19 +731,19 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -754,10 +770,10 @@
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -888,7 +904,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="4">
+  <tableStyles count="5">
     <tableStyle count="3" pivot="0" name="Documento Geral de Recolha-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -898,6 +914,10 @@
       <tableStyleElement dxfId="4" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Requisitos de Descrição-style 2">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Requisitos de Manipulação-style">
       <tableStyleElement dxfId="6" type="headerRow"/>
@@ -934,7 +954,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A9:H59" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A9:H60" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="8">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -969,7 +989,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A9:F27" displayName="Table_3" name="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A38:H38" displayName="Table_3" name="Table_3" id="3">
+  <tableColumns count="8">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+    <tableColumn name="Column6" id="6"/>
+    <tableColumn name="Column7" id="7"/>
+    <tableColumn name="Column8" id="8"/>
+  </tableColumns>
+  <tableStyleInfo name="Requisitos de Descrição-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A9:F27" displayName="Table_4" name="Table_4" id="4">
   <tableColumns count="6">
     <tableColumn name="Nr" id="1"/>
     <tableColumn name="Data e Hora" id="2"/>
@@ -982,8 +1018,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A9:F13" displayName="Table_4" name="Table_4" id="4">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A9:F13" displayName="Table_5" name="Table_5" id="5">
   <tableColumns count="6">
     <tableColumn name="Nr" id="1"/>
     <tableColumn name="Data e Hora" id="2"/>
@@ -2101,46 +2137,46 @@
       <c r="A46" s="10">
         <v>37.0</v>
       </c>
-      <c r="B46" s="16">
-        <v>45362.84027777778</v>
-      </c>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="11">
+        <v>45376.90625</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>64</v>
+      <c r="D46" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>65</v>
+      <c r="F46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="10">
         <v>38.0</v>
       </c>
-      <c r="B47" s="11">
-        <v>45361.47222222222</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="16">
+        <v>45362.84027777778</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -2148,22 +2184,22 @@
         <v>39.0</v>
       </c>
       <c r="B48" s="11">
-        <v>45371.774305555555</v>
+        <v>45361.47222222222</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>18</v>
+      <c r="F48" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -2171,22 +2207,22 @@
         <v>40.0</v>
       </c>
       <c r="B49" s="11">
-        <v>45362.83472222222</v>
-      </c>
-      <c r="C49" s="13" t="s">
+        <v>45371.774305555555</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>16</v>
+      <c r="F49" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -2194,22 +2230,22 @@
         <v>41.0</v>
       </c>
       <c r="B50" s="11">
-        <v>45362.836805555555</v>
-      </c>
-      <c r="C50" s="17" t="s">
+        <v>45362.83472222222</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -2217,16 +2253,16 @@
         <v>42.0</v>
       </c>
       <c r="B51" s="11">
-        <v>45361.68402777778</v>
-      </c>
-      <c r="C51" s="10" t="s">
+        <v>45362.836805555555</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>18</v>
@@ -2243,10 +2279,10 @@
         <v>45361.68402777778</v>
       </c>
       <c r="C52" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>20</v>
@@ -2263,13 +2299,13 @@
         <v>44.0</v>
       </c>
       <c r="B53" s="11">
-        <v>45361.68472222222</v>
-      </c>
-      <c r="C53" s="5" t="s">
+        <v>45361.68402777778</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>20</v>
@@ -2286,13 +2322,13 @@
         <v>45.0</v>
       </c>
       <c r="B54" s="11">
-        <v>45361.694444444445</v>
-      </c>
-      <c r="C54" s="10" t="s">
+        <v>45361.68472222222</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>20</v>
@@ -2309,13 +2345,13 @@
         <v>46.0</v>
       </c>
       <c r="B55" s="11">
-        <v>45361.70138888889</v>
+        <v>45361.694444444445</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>20</v>
@@ -2332,13 +2368,13 @@
         <v>47.0</v>
       </c>
       <c r="B56" s="11">
-        <v>45362.819444444445</v>
-      </c>
-      <c r="C56" s="18" t="s">
+        <v>45361.70138888889</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>20</v>
@@ -2355,13 +2391,13 @@
         <v>48.0</v>
       </c>
       <c r="B57" s="11">
-        <v>45371.77777777778</v>
-      </c>
-      <c r="C57" s="10" t="s">
+        <v>45362.819444444445</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>20</v>
@@ -2374,21 +2410,64 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="19"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="A58" s="10">
+        <v>49.0</v>
+      </c>
+      <c r="B58" s="11">
+        <v>45371.77777777778</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="10"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7">
@@ -2402,16 +2481,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D10:D59">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D10:D58">
       <formula1>Dropdowns!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E10:E59">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E10:E58">
       <formula1>Dropdowns!$B$2:$B$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F10:F59">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F10:F58">
       <formula1>Dropdowns!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G10:G59">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G10:G58">
       <formula1>Dropdowns!$D$2:$D$1000</formula1>
     </dataValidation>
   </dataValidations>
@@ -2446,9 +2525,9 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>79</v>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -2475,8 +2554,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="22" t="s">
-        <v>80</v>
+      <c r="A7" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="E7" s="7">
         <v>45376.0</v>
@@ -2595,7 +2674,7 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>14</v>
@@ -2616,7 +2695,7 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>14</v>
@@ -3072,34 +3151,62 @@
       <c r="G36" s="10"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="23">
+      <c r="A37" s="26">
         <v>36.0</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="27">
         <v>45361.540972222225</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="10">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="11">
+        <v>45376.90625</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="10"/>
+    </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3116,13 +3223,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D10:D37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D10:D38">
       <formula1>Dropdowns!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E10:E37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E10:E38">
       <formula1>Dropdowns!$B$2:$B$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F10:F37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F10:F38">
       <formula1>Dropdowns!$C$2:$C$1000</formula1>
     </dataValidation>
   </dataValidations>
@@ -3131,8 +3238,9 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId5"/>
+  <tableParts count="2">
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3157,8 +3265,8 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="F1" s="26" t="s">
-        <v>82</v>
+      <c r="F1" s="28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2">
@@ -3185,8 +3293,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="s">
-        <v>83</v>
+      <c r="A7" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="E7" s="7">
         <v>45376.0</v>
@@ -3212,722 +3320,722 @@
       <c r="F9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="29">
+      <c r="A10" s="31">
         <v>5.0</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="32">
         <v>45361.39027777778</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
+      <c r="F10" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="34">
+      <c r="A11" s="36">
         <v>11.0</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="37">
         <v>45371.75486111111</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
+      <c r="F11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="38">
+      <c r="A12" s="40">
         <v>12.0</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="41">
         <v>45363.819444444445</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
+      <c r="F12" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="34">
+      <c r="A13" s="36">
         <v>13.0</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="37">
         <v>45376.90972222222</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
+      <c r="F13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="29">
+      <c r="A14" s="31">
         <v>19.0</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="32">
         <v>45371.774305555555</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
+      <c r="F14" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="34">
+      <c r="A15" s="36">
         <v>20.0</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="37">
         <v>45361.54861111111</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
+      <c r="F15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="29">
+      <c r="A16" s="31">
         <v>21.0</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="32">
         <v>45371.770833333336</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="34">
+      <c r="A17" s="36">
         <v>32.0</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="37">
         <v>45361.524305555555</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
+      <c r="F17" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="29">
+      <c r="A18" s="31">
         <v>41.0</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="32">
         <v>45362.836805555555</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
+      <c r="C18" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="34">
+      <c r="A19" s="36">
         <v>42.0</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="37">
         <v>45361.68402777778</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="D19" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
+      <c r="F19" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="29">
+      <c r="A20" s="31">
         <v>43.0</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="32">
         <v>45361.68402777778</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
+      <c r="F20" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="34">
+      <c r="A21" s="36">
         <v>44.0</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="37">
         <v>45361.68472222222</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="37" t="s">
+      <c r="C21" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
+      <c r="F21" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="29">
+      <c r="A22" s="31">
         <v>45.0</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="32">
         <v>45361.694444444445</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="31" t="s">
+      <c r="C22" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
+      <c r="F22" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="34">
+      <c r="A23" s="36">
         <v>46.0</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="37">
         <v>45361.70138888889</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="37" t="s">
+      <c r="C23" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
+      <c r="F23" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="29">
+      <c r="A24" s="31">
         <v>47.0</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="32">
         <v>45362.819444444445</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="31" t="s">
+      <c r="C24" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
+      <c r="F24" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="34">
+      <c r="A25" s="36">
         <v>48.0</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="37">
         <v>45371.77777777778</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="37" t="s">
+      <c r="C25" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
+      <c r="F25" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3985,8 +4093,8 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="F1" s="48" t="s">
-        <v>86</v>
+      <c r="F1" s="50" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2">
@@ -4013,8 +4121,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="s">
-        <v>87</v>
+      <c r="A7" s="51" t="s">
+        <v>91</v>
       </c>
       <c r="E7" s="7">
         <v>45376.0</v>
@@ -4049,10 +4157,10 @@
         <v>45362.84027777778</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>15</v>
@@ -4069,10 +4177,10 @@
         <v>45361.47222222222</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>20</v>
@@ -4089,10 +4197,10 @@
         <v>45371.774305555555</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>20</v>
@@ -4109,10 +4217,10 @@
         <v>45362.83472222222</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>20</v>
@@ -4173,16 +4281,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="52" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4194,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>8</v>
@@ -4208,7 +4316,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>23</v>
@@ -4225,11 +4333,11 @@
         <v>16</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -4237,7 +4345,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="53" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -4245,40 +4353,40 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="52" t="s">
-        <v>67</v>
+      <c r="A9" s="54" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="52" t="s">
-        <v>64</v>
+      <c r="A10" s="54" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="s">
-        <v>91</v>
+      <c r="A11" s="34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="52"/>
+      <c r="A13" s="54"/>
     </row>
     <row r="14">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/requisitos/Requisitos.xlsx
+++ b/requisitos/Requisitos.xlsx
@@ -45,7 +45,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="98">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t>Consultoria de Detetives Christie</t>
   </si>
@@ -235,7 +238,7 @@
     <t>Devido a natureza do relacionamento entre suspeitos e casos (N:M) é feito um mapeamento entre os identificadores de caso e de suspeito.</t>
   </si>
   <si>
-    <t>Um registo de uma vinculação efetua a ligação entre um caso e os seus detetives, e deve incluir os seguintes atributos: data de vinculação, data de desvinculção (opcional) e descrição.</t>
+    <t>Um registo de uma vinculação efetua a ligação entre um caso e os seus detetives, e deve incluir os seguintes atributos: data de vinculação, data de desvinculação (opcional) e descrição.</t>
   </si>
   <si>
     <t>Vinculações</t>
@@ -385,6 +388,9 @@
   </si>
   <si>
     <t>Todos os casos têm associado um único cliente.</t>
+  </si>
+  <si>
+    <t>Um registo de uma vinculação efetua a ligação entre um caso e os seus detetives, e deve incluir os seguintes atributos: data de vinculação, data de desvinculção (opcional) e descrição.</t>
   </si>
   <si>
     <r>
@@ -653,11 +659,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -711,6 +719,7 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -718,6 +727,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -975,16 +987,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A9:F36" displayName="Table_2" name="Table_2" id="2">
-  <tableColumns count="6">
-    <tableColumn name="Nr" id="1"/>
-    <tableColumn name="Data e Hora" id="2"/>
-    <tableColumn name="Descrição" id="3"/>
-    <tableColumn name="Área" id="4"/>
-    <tableColumn name="Fonte" id="5"/>
-    <tableColumn name="Analista" id="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A9:G36" displayName="Table_2" name="Table_2" id="2">
+  <tableColumns count="7">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+    <tableColumn name="Column6" id="6"/>
+    <tableColumn name="Column7" id="7"/>
   </tableColumns>
   <tableStyleInfo name="Requisitos de Descrição-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
 </table>
 </file>
 
@@ -1247,34 +1265,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7">
         <v>45376.0</v>
@@ -1283,25 +1303,25 @@
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1312,19 +1332,19 @@
         <v>45371.75347222222</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1335,19 +1355,19 @@
         <v>45371.75347222222</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1358,19 +1378,19 @@
         <v>45361.38888888889</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -1381,19 +1401,19 @@
         <v>45376.90277777778</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1404,19 +1424,19 @@
         <v>45361.39027777778</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -1427,19 +1447,19 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -1450,19 +1470,19 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -1473,19 +1493,19 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -1496,19 +1516,19 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -1519,19 +1539,19 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -1542,19 +1562,19 @@
         <v>45371.75486111111</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -1565,19 +1585,19 @@
         <v>45363.819444444445</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -1588,19 +1608,19 @@
         <v>45376.90972222222</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -1611,19 +1631,19 @@
         <v>45371.77777777778</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1634,19 +1654,19 @@
         <v>45361.430555555555</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24" s="15"/>
     </row>
@@ -1658,19 +1678,19 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1681,19 +1701,19 @@
         <v>45361.44583333333</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -1704,19 +1724,19 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -1727,19 +1747,19 @@
         <v>45371.774305555555</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -1750,19 +1770,19 @@
         <v>45361.54861111111</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -1773,19 +1793,19 @@
         <v>45371.770833333336</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -1796,19 +1816,19 @@
         <v>45361.52638888889</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -1819,19 +1839,19 @@
         <v>45361.52569444444</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="E32" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -1842,19 +1862,19 @@
         <v>45361.527083333334</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -1865,19 +1885,19 @@
         <v>45361.458333333336</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="E34" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -1888,19 +1908,19 @@
         <v>45361.555555555555</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -1911,19 +1931,19 @@
         <v>45361.52777777778</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -1934,19 +1954,19 @@
         <v>45361.459027777775</v>
       </c>
       <c r="C37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="E37" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -1957,19 +1977,19 @@
         <v>45376.90625</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -1980,19 +2000,19 @@
         <v>45361.55902777778</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -2003,19 +2023,19 @@
         <v>45361.520833333336</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -2026,19 +2046,19 @@
         <v>45361.524305555555</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E41" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -2049,19 +2069,19 @@
         <v>45361.53472222222</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -2072,19 +2092,19 @@
         <v>45361.53472222222</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="E43" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -2095,19 +2115,19 @@
         <v>45361.53958333333</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -2118,19 +2138,19 @@
         <v>45361.540972222225</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -2141,19 +2161,19 @@
         <v>45376.90625</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -2164,19 +2184,19 @@
         <v>45362.84027777778</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -2187,19 +2207,19 @@
         <v>45361.47222222222</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -2210,19 +2230,19 @@
         <v>45371.774305555555</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="E49" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -2233,19 +2253,19 @@
         <v>45362.83472222222</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -2256,19 +2276,19 @@
         <v>45362.836805555555</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -2279,19 +2299,19 @@
         <v>45361.68402777778</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -2302,19 +2322,19 @@
         <v>45361.68402777778</v>
       </c>
       <c r="C53" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="E53" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -2325,19 +2345,19 @@
         <v>45361.68472222222</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -2348,19 +2368,19 @@
         <v>45361.694444444445</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -2371,19 +2391,19 @@
         <v>45361.70138888889</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -2394,19 +2414,19 @@
         <v>45362.819444444445</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -2417,19 +2437,19 @@
         <v>45371.77777777778</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -2524,38 +2544,38 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24" t="s">
-        <v>80</v>
+      <c r="A1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="s">
-        <v>81</v>
+      <c r="A7" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="E7" s="7">
         <v>45376.0</v>
@@ -2564,23 +2584,24 @@
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
@@ -2590,16 +2611,16 @@
         <v>45371.75347222222</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -2611,16 +2632,16 @@
         <v>45371.75347222222</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="10"/>
     </row>
@@ -2632,16 +2653,16 @@
         <v>45361.38888888889</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="10"/>
     </row>
@@ -2653,16 +2674,16 @@
         <v>45376.90277777778</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="10"/>
     </row>
@@ -2674,16 +2695,16 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" s="10"/>
     </row>
@@ -2695,16 +2716,16 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="10"/>
     </row>
@@ -2716,16 +2737,16 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G16" s="10"/>
     </row>
@@ -2737,16 +2758,16 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -2758,16 +2779,16 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="10"/>
     </row>
@@ -2779,16 +2800,16 @@
         <v>45371.77777777778</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="10"/>
     </row>
@@ -2800,16 +2821,16 @@
         <v>45361.430555555555</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="E20" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="15"/>
@@ -2822,16 +2843,16 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -2843,16 +2864,16 @@
         <v>45361.44583333333</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="10"/>
     </row>
@@ -2864,16 +2885,16 @@
         <v>45371.76736111111</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="10"/>
     </row>
@@ -2885,16 +2906,16 @@
         <v>45361.52638888889</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" s="10"/>
     </row>
@@ -2906,16 +2927,16 @@
         <v>45361.52569444444</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="E25" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -2927,16 +2948,16 @@
         <v>45361.527083333334</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" s="10"/>
     </row>
@@ -2948,16 +2969,16 @@
         <v>45361.458333333336</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="E27" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G27" s="10"/>
     </row>
@@ -2969,16 +2990,16 @@
         <v>45361.555555555555</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="10"/>
     </row>
@@ -2990,16 +3011,16 @@
         <v>45361.52777777778</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" s="10"/>
     </row>
@@ -3011,16 +3032,16 @@
         <v>45361.459027777775</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="E30" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" s="10"/>
     </row>
@@ -3032,16 +3053,16 @@
         <v>45376.90625</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="10"/>
     </row>
@@ -3053,16 +3074,16 @@
         <v>45361.55902777778</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" s="10"/>
     </row>
@@ -3074,16 +3095,16 @@
         <v>45361.520833333336</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G33" s="10"/>
     </row>
@@ -3095,16 +3116,16 @@
         <v>45361.53472222222</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G34" s="10"/>
     </row>
@@ -3116,16 +3137,16 @@
         <v>45361.53472222222</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="E35" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G35" s="10"/>
     </row>
@@ -3137,37 +3158,37 @@
         <v>45361.53958333333</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" s="10"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="26">
+      <c r="A37" s="28">
         <v>36.0</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="29">
         <v>45361.540972222225</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>18</v>
+      <c r="C37" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="G37" s="10"/>
     </row>
@@ -3179,16 +3200,16 @@
         <v>45376.90625</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" s="10"/>
     </row>
@@ -3264,37 +3285,37 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="F1" s="28" t="s">
-        <v>85</v>
+      <c r="A1" s="23"/>
+      <c r="F1" s="30" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="s">
-        <v>86</v>
+      <c r="A7" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="E7" s="7">
         <v>45376.0</v>
@@ -3303,739 +3324,739 @@
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="31">
+      <c r="A10" s="33">
         <v>5.0</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="34">
         <v>45361.39027777778</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
+      <c r="C10" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="36">
+      <c r="A11" s="38">
         <v>11.0</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="39">
         <v>45371.75486111111</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="39" t="s">
+      <c r="C11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
+      <c r="D11" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="40">
+      <c r="A12" s="42">
         <v>12.0</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="43">
         <v>45363.819444444445</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="38">
+        <v>13.0</v>
+      </c>
+      <c r="B13" s="39">
+        <v>45376.90972222222</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="36">
-        <v>13.0</v>
-      </c>
-      <c r="B13" s="37">
-        <v>45376.90972222222</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
+      <c r="F13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="31">
+      <c r="A14" s="33">
         <v>19.0</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="34">
         <v>45371.774305555555</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
+      <c r="C14" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="36">
+      <c r="A15" s="38">
         <v>20.0</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="39">
         <v>45361.54861111111</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
+      <c r="C15" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="31">
+      <c r="A16" s="33">
         <v>21.0</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="34">
         <v>45371.770833333336</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="33" t="s">
+      <c r="C16" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="38">
+        <v>32.0</v>
+      </c>
+      <c r="B17" s="39">
+        <v>45361.524305555555</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="33">
+        <v>41.0</v>
+      </c>
+      <c r="B18" s="34">
+        <v>45362.836805555555</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="38">
+        <v>42.0</v>
+      </c>
+      <c r="B19" s="39">
+        <v>45361.68402777778</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="33">
+        <v>43.0</v>
+      </c>
+      <c r="B20" s="34">
+        <v>45361.68402777778</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="38">
+        <v>44.0</v>
+      </c>
+      <c r="B21" s="39">
+        <v>45361.68472222222</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="33">
+        <v>45.0</v>
+      </c>
+      <c r="B22" s="34">
+        <v>45361.694444444445</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="38">
+        <v>46.0</v>
+      </c>
+      <c r="B23" s="39">
+        <v>45361.70138888889</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="33">
+        <v>47.0</v>
+      </c>
+      <c r="B24" s="34">
+        <v>45362.819444444445</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="38">
+        <v>48.0</v>
+      </c>
+      <c r="B25" s="39">
+        <v>45371.77777777778</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="36">
-        <v>32.0</v>
-      </c>
-      <c r="B17" s="37">
-        <v>45361.524305555555</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="31">
-        <v>41.0</v>
-      </c>
-      <c r="B18" s="32">
-        <v>45362.836805555555</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="36">
-        <v>42.0</v>
-      </c>
-      <c r="B19" s="37">
-        <v>45361.68402777778</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="31">
-        <v>43.0</v>
-      </c>
-      <c r="B20" s="32">
-        <v>45361.68402777778</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="36">
-        <v>44.0</v>
-      </c>
-      <c r="B21" s="37">
-        <v>45361.68472222222</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="31">
-        <v>45.0</v>
-      </c>
-      <c r="B22" s="32">
-        <v>45361.694444444445</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="36">
-        <v>46.0</v>
-      </c>
-      <c r="B23" s="37">
-        <v>45361.70138888889</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="31">
-        <v>47.0</v>
-      </c>
-      <c r="B24" s="32">
-        <v>45362.819444444445</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="36">
-        <v>48.0</v>
-      </c>
-      <c r="B25" s="37">
-        <v>45371.77777777778</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
+      <c r="E25" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4092,37 +4113,37 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="F1" s="50" t="s">
-        <v>90</v>
+      <c r="A1" s="23"/>
+      <c r="F1" s="52" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="51" t="s">
-        <v>91</v>
+      <c r="A7" s="53" t="s">
+        <v>93</v>
       </c>
       <c r="E7" s="7">
         <v>45376.0</v>
@@ -4131,22 +4152,22 @@
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -4157,16 +4178,16 @@
         <v>45362.84027777778</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -4177,16 +4198,16 @@
         <v>45361.47222222222</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -4197,16 +4218,16 @@
         <v>45371.774305555555</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -4217,16 +4238,16 @@
         <v>45362.83472222222</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -4281,112 +4302,112 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="52" t="s">
+      <c r="A1" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="54" t="s">
         <v>12</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="54" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="11">
-      <c r="A11" s="34" t="s">
-        <v>95</v>
+      <c r="A11" s="36" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="54"/>
+      <c r="A13" s="56"/>
     </row>
     <row r="14">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/requisitos/Requisitos.xlsx
+++ b/requisitos/Requisitos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -134,7 +134,7 @@
     <t>Dado o identificador do caso, deve ser possível aceder a todos os detetives que já estiveram envolvidos, bem como detetives envolvidos no momento.</t>
   </si>
   <si>
-    <t>O sistema permite a pesquisa de características comuns entre casos, através da pesquisa de descrições nas seguintes entidades: casos, evidências, suspeitos e testemunhas.</t>
+    <t>O sistema permite a pesquisa de características comuns entre casos, através da pesquisa de descrições nas seguintes entidades: casos, evidências e suspeitos.</t>
   </si>
   <si>
     <t>Cada detetive tem um identificador único, representado por um número inteiro, numerado sequencialmente.</t>
@@ -232,7 +232,7 @@
     <t>Vinculações</t>
   </si>
   <si>
-    <t>Uma desvinculação de um detetive a um caso, sejam os motivos aposentamento/demissão/remoção do detetive, deve atualizar o atributo "data de desvinculção".</t>
+    <t>Uma desvinculação de um detetive a um caso, sejam os motivos aposentamento/demissão/remoção do detetive, deve atualizar o atributo "data de desvinculação".</t>
   </si>
   <si>
     <t>Cada evidência tem um identificador único, representado por um número inteiro, numerado sequencialmente.</t>
@@ -519,7 +519,7 @@
     <numFmt numFmtId="164" formatCode="d&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy hh:mm"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -555,6 +555,11 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -836,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -885,10 +890,13 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -903,7 +911,7 @@
     <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -921,10 +929,10 @@
     <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -952,10 +960,10 @@
     <xf borderId="17" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="10" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1012,12 +1020,12 @@
     <xf borderId="14" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1028,7 +1036,7 @@
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
@@ -1045,6 +1053,9 @@
     <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,10 +1065,10 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1077,10 +1088,10 @@
     <xf borderId="16" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1722,7 +1733,7 @@
       <c r="B10" s="15">
         <v>45371.76736111111</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -1768,7 +1779,7 @@
       <c r="B12" s="15">
         <v>45371.76736111111</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -1791,7 +1802,7 @@
       <c r="B13" s="15">
         <v>45371.76736111111</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -1814,7 +1825,7 @@
       <c r="B14" s="15">
         <v>45371.75486111111</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -1837,7 +1848,7 @@
       <c r="B15" s="15">
         <v>45363.819444444445</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -1860,7 +1871,7 @@
       <c r="B16" s="15">
         <v>45376.90972222222</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
@@ -1883,7 +1894,7 @@
       <c r="B17" s="15">
         <v>45371.77777777778</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -1906,7 +1917,7 @@
       <c r="B18" s="15">
         <v>45361.430555555555</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -1998,7 +2009,7 @@
       <c r="B22" s="15">
         <v>45371.774305555555</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -2021,7 +2032,7 @@
       <c r="B23" s="15">
         <v>45361.54861111111</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -2044,7 +2055,7 @@
       <c r="B24" s="15">
         <v>45371.770833333336</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -2455,22 +2466,22 @@
       <c r="A42" s="14">
         <v>39.0</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="23">
         <v>45362.84027777778</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="25" t="s">
         <v>62</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="25" t="s">
+      <c r="F42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="26" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2513,7 +2524,7 @@
       <c r="E44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="25" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="18" t="s">
@@ -2527,7 +2538,7 @@
       <c r="B45" s="15">
         <v>45362.83472222222</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -2550,7 +2561,7 @@
       <c r="B46" s="15">
         <v>45362.836805555555</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D46" s="17" t="s">
@@ -2688,7 +2699,7 @@
       <c r="B52" s="15">
         <v>45362.819444444445</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="27" t="s">
         <v>75</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -2728,25 +2739,25 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="27">
+      <c r="A54" s="28">
         <v>51.0</v>
       </c>
-      <c r="B54" s="28">
+      <c r="B54" s="29">
         <v>45394.46875</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="31" t="s">
+      <c r="F54" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="32" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2810,12 +2821,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" ht="21.75" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="6"/>
@@ -2824,25 +2835,25 @@
         <v>45376.0</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="34"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2993,7 +3004,7 @@
       <c r="B11" s="15">
         <v>45371.76736111111</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -3013,7 +3024,7 @@
       <c r="B12" s="15">
         <v>45371.76736111111</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -3033,7 +3044,7 @@
       <c r="B13" s="15">
         <v>45371.77777777778</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -3053,7 +3064,7 @@
       <c r="B14" s="15">
         <v>45361.430555555555</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -3410,39 +3421,39 @@
       <c r="A32" s="14">
         <v>37.0</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="23">
         <v>45361.540972222225</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="38">
+      <c r="A33" s="39">
         <v>38.0</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="40">
         <v>45376.90625</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="42" t="s">
+      <c r="E33" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3505,12 +3516,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" ht="21.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="8">
@@ -3519,342 +3530,342 @@
       <c r="E2" s="10"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48">
+      <c r="A4" s="49">
         <v>5.0</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="50">
         <v>45361.39027777778</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="53">
+      <c r="A5" s="54">
         <v>11.0</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="55">
         <v>45371.75486111111</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="58">
+      <c r="A6" s="59">
         <v>12.0</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="60">
         <v>45363.819444444445</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="63" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="53">
+      <c r="A7" s="54">
         <v>13.0</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="55">
         <v>45376.90972222222</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48">
+      <c r="A8" s="49">
         <v>19.0</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="50">
         <v>45371.774305555555</v>
       </c>
       <c r="C8" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="53">
+      <c r="A9" s="54">
         <v>20.0</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="55">
         <v>45361.54861111111</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48">
+      <c r="A10" s="49">
         <v>21.0</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="50">
         <v>45371.770833333336</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="66" t="s">
+      <c r="E10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="67" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="67">
+      <c r="A11" s="68">
         <v>33.0</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="55">
         <v>45361.524305555555</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="69">
+      <c r="A12" s="70">
         <v>44.0</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="71">
         <v>45361.68402777778</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="67">
+      <c r="A13" s="68">
         <v>45.0</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="55">
         <v>45361.68402777778</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="69">
+      <c r="A14" s="70">
         <v>46.0</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="71">
         <v>45361.68472222222</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="67">
+      <c r="A15" s="68">
         <v>47.0</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="55">
         <v>45361.694444444445</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="69">
+      <c r="A16" s="70">
         <v>48.0</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="71">
         <v>45361.70138888889</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="67">
+      <c r="A17" s="68">
         <v>49.0</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="55">
         <v>45362.819444444445</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="69">
+      <c r="A18" s="70">
         <v>50.0</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="71">
         <v>45371.77777777778</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="27">
+      <c r="A19" s="28">
         <v>51.0</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="29">
         <v>45394.46875</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3906,46 +3917,46 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="78" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="79" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" ht="21.75" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80">
+      <c r="C2" s="81"/>
+      <c r="D2" s="82">
         <v>45376.0</v>
       </c>
-      <c r="E2" s="81"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="86" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3953,19 +3964,19 @@
       <c r="A4" s="14">
         <v>39.0</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="23">
         <v>45362.84027777778</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4005,7 +4016,7 @@
       <c r="E6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4016,7 +4027,7 @@
       <c r="B7" s="15">
         <v>45362.83472222222</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -4030,22 +4041,22 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="27">
+      <c r="A8" s="28">
         <v>43.0</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="29">
         <v>45362.836805555555</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4093,112 +4104,112 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="88" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="89" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="87" t="s">
+      <c r="B3" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="89" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="89" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="89" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="89" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="90" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="90" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="91" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="91" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="92" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="89" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="89"/>
+      <c r="A13" s="91"/>
     </row>
     <row r="14">
-      <c r="A14" s="90"/>
+      <c r="A14" s="92"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
